--- a/data/testdir_explorer/xlsx_ns.xlsx
+++ b/data/testdir_explorer/xlsx_ns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myfinddx-my.sharepoint.com/personal/juan_vallarta_finddx_org/Documents/Documents/Repositories/FINDtestdirData/data/testdir_explorer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{65F09860-AF2B-4921-8639-CE0EB891F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71BA0CD0-EBC4-4754-9F2E-73A719A9F160}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{65F09860-AF2B-4921-8639-CE0EB891F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{077204A1-D8E2-4E46-BEFF-FF00DC801C46}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$U$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$22</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,65 +38,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={F04BEF69-4DBA-43BD-8872-821CEB76C59C}</author>
-    <author>tc={B1A1A71A-5810-4F7F-BB8C-6734BB581F06}</author>
-  </authors>
-  <commentList>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{F04BEF69-4DBA-43BD-8872-821CEB76C59C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Yes to all for CA - CJ</t>
-      </text>
-    </comment>
-    <comment ref="R2" authorId="1" shapeId="0" xr:uid="{B1A1A71A-5810-4F7F-BB8C-6734BB581F06}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Yes to all for CA - CJ</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="284">
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>MAYBE - Achieved regulatory approval for sepsis test?</t>
-  </si>
-  <si>
-    <t>MAYBE</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>Sent to 150, 26 total, 4 don't want public, 4 incomplete</t>
-  </si>
-  <si>
-    <t>Clean data</t>
-  </si>
-  <si>
-    <t>cleaning needed</t>
-  </si>
-  <si>
-    <t>CLEANSED</t>
-  </si>
-  <si>
-    <t>Publish?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="274">
   <si>
     <t>Organisation name</t>
   </si>
@@ -216,9 +159,6 @@
   </si>
   <si>
     <t>sbanerjee@abgenics.in</t>
-  </si>
-  <si>
-    <t>abgenics.in</t>
   </si>
   <si>
     <t>Abionic</t>
@@ -276,9 +216,6 @@
     <t>iwan.maerki@abionic.com</t>
   </si>
   <si>
-    <t>abionic.com</t>
-  </si>
-  <si>
     <t>Accesso Biotech Corporation</t>
   </si>
   <si>
@@ -324,9 +261,6 @@
     <t>wei@accessobio.com</t>
   </si>
   <si>
-    <t>accessobio.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Accuplex Diagnostics </t>
   </si>
   <si>
@@ -360,9 +294,6 @@
     <t>kieran@accuplexdiagnostics.com</t>
   </si>
   <si>
-    <t>accuplexdiagnostics.com</t>
-  </si>
-  <si>
     <t>Autobio Diagnostics Co., Ltd.</t>
   </si>
   <si>
@@ -408,9 +339,6 @@
     <t>snow.yang@autobio.com.cn</t>
   </si>
   <si>
-    <t>en.autobio.com.cn</t>
-  </si>
-  <si>
     <t>Baebies, Inc</t>
   </si>
   <si>
@@ -447,9 +375,6 @@
     <t>rng@baebies.com</t>
   </si>
   <si>
-    <t>baebies.com</t>
-  </si>
-  <si>
     <t>BELGIAN VOLITION</t>
   </si>
   <si>
@@ -483,9 +408,6 @@
     <t>L.Batchelor@volition.com</t>
   </si>
   <si>
-    <t>volition.com</t>
-  </si>
-  <si>
     <t>biosurfit SA</t>
   </si>
   <si>
@@ -519,9 +441,6 @@
     <t>mariajoaocosta@biosurfit.com</t>
   </si>
   <si>
-    <t>biosurfit.com</t>
-  </si>
-  <si>
     <t>Brightest Bio</t>
   </si>
   <si>
@@ -549,9 +468,6 @@
     <t>ssadasivam@brightestbio.com</t>
   </si>
   <si>
-    <t>brightestbio.com</t>
-  </si>
-  <si>
     <t>Cube Dx GmbH</t>
   </si>
   <si>
@@ -591,9 +507,6 @@
     <t>reschreiter@cubedx.com</t>
   </si>
   <si>
-    <t>cubedx.com</t>
-  </si>
-  <si>
     <t>EDX Medical Ltd</t>
   </si>
   <si>
@@ -630,9 +543,6 @@
     <t>mike@edxmedical.com</t>
   </si>
   <si>
-    <t>edxmedical.com</t>
-  </si>
-  <si>
     <t>Inflammatix</t>
   </si>
   <si>
@@ -651,9 +561,6 @@
     <t>info@inflammatix.com</t>
   </si>
   <si>
-    <t>inflammatix.com</t>
-  </si>
-  <si>
     <t>Loop Diagnostics S.L.</t>
   </si>
   <si>
@@ -690,9 +597,6 @@
     <t>enrique@loopdx.com</t>
   </si>
   <si>
-    <t>loopdx.com</t>
-  </si>
-  <si>
     <t>Mylab Discovery Solutions</t>
   </si>
   <si>
@@ -721,9 +625,6 @@
   </si>
   <si>
     <t>saurabh@mylabglobal.com</t>
-  </si>
-  <si>
-    <t>mylabglobal.com</t>
   </si>
   <si>
     <t>Pilotgene Technology (Hangzhou) Ltd.</t>
@@ -760,9 +661,6 @@
     <t>zhaobao.wang@pilotgene.com</t>
   </si>
   <si>
-    <t>pilotgene.com</t>
-  </si>
-  <si>
     <t>Quantigen</t>
   </si>
   <si>
@@ -785,9 +683,6 @@
     <t>doug.rains@quantigen.com</t>
   </si>
   <si>
-    <t>quantigen.com</t>
-  </si>
-  <si>
     <t>Roche Diagnostics International</t>
   </si>
   <si>
@@ -812,9 +707,6 @@
     <t>patrick.nordstrom@roche.com</t>
   </si>
   <si>
-    <t>roche.com/solutions/diagnostics</t>
-  </si>
-  <si>
     <t>Septest Limited</t>
   </si>
   <si>
@@ -830,9 +722,6 @@
     <t>info@septest.com</t>
   </si>
   <si>
-    <t>septest.com</t>
-  </si>
-  <si>
     <t>Thermo Fisher Scientific</t>
   </si>
   <si>
@@ -869,9 +758,6 @@
     <t>sri.vishnubhotla@thermofisher.com</t>
   </si>
   <si>
-    <t>thermofisher.com</t>
-  </si>
-  <si>
     <t>Vitrosens Biotechnology</t>
   </si>
   <si>
@@ -887,9 +773,6 @@
     <t>info@vitrosens.com</t>
   </si>
   <si>
-    <t>vitrosens.com</t>
-  </si>
-  <si>
     <t>MeMed</t>
   </si>
   <si>
@@ -920,7 +803,67 @@
     <t>tanya.gottlieb@me-med.com</t>
   </si>
   <si>
-    <t>MeMed.com</t>
+    <t>https://abgenics.in</t>
+  </si>
+  <si>
+    <t>https://abionic.com</t>
+  </si>
+  <si>
+    <t>https://accessobio.com</t>
+  </si>
+  <si>
+    <t>https://accuplexdiagnostics.com</t>
+  </si>
+  <si>
+    <t>https://en.autobio.com.cn</t>
+  </si>
+  <si>
+    <t>https://baebies.com</t>
+  </si>
+  <si>
+    <t>https://volition.com</t>
+  </si>
+  <si>
+    <t>https://biosurfit.com</t>
+  </si>
+  <si>
+    <t>https://brightestbio.com</t>
+  </si>
+  <si>
+    <t>https://cubedx.com</t>
+  </si>
+  <si>
+    <t>https://edxmedical.com</t>
+  </si>
+  <si>
+    <t>https://inflammatix.com</t>
+  </si>
+  <si>
+    <t>https://loopdx.com</t>
+  </si>
+  <si>
+    <t>https://mylabglobal.com</t>
+  </si>
+  <si>
+    <t>https://pilotgene.com</t>
+  </si>
+  <si>
+    <t>https://quantigen.com</t>
+  </si>
+  <si>
+    <t>https://roche.com/solutions/diagnostics</t>
+  </si>
+  <si>
+    <t>https://septest.com</t>
+  </si>
+  <si>
+    <t>https://thermofisher.com</t>
+  </si>
+  <si>
+    <t>https://vitrosens.com</t>
+  </si>
+  <si>
+    <t>https://MeMed.com</t>
   </si>
 </sst>
 </file>
@@ -930,7 +873,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -954,21 +897,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -1009,23 +937,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1036,6 +958,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1052,12 +976,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Kara Palamountain" id="{1C7F9B9D-0342-41D6-9CF7-E46FAB90067A}" userId="S::kmp015@ads.northwestern.edu::cb11c42f-1137-4bc2-b028-e3da8afd5d11" providerId="AD"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1375,26 +1293,15 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Q2" dT="2025-04-18T17:17:43.94" personId="{1C7F9B9D-0342-41D6-9CF7-E46FAB90067A}" id="{F04BEF69-4DBA-43BD-8872-821CEB76C59C}">
-    <text>Yes to all for CA - CJ</text>
-  </threadedComment>
-  <threadedComment ref="R2" dT="2025-04-18T17:17:43.94" personId="{1C7F9B9D-0342-41D6-9CF7-E46FAB90067A}" id="{B1A1A71A-5810-4F7F-BB8C-6734BB581F06}">
-    <text>Yes to all for CA - CJ</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F90FCE5-61FA-4F4D-9B1D-12578B947F39}">
-  <dimension ref="A1:U153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F90FCE5-61FA-4F4D-9B1D-12578B947F39}">
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W3" sqref="W3"/>
       <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1414,958 +1321,980 @@
     <col min="19" max="21" width="44.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="39" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>253</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="8" t="s">
+    <row r="3" spans="1:21" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="I3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>30</v>
+      <c r="J3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="T4" s="2" t="s">
+      <c r="K6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="M6" s="3" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>80</v>
+        <v>93</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>40</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P8" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="R8" s="3" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q9" s="11">
-        <v>40</v>
+        <v>130</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>126</v>
+        <v>132</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>132</v>
-      </c>
       <c r="O10" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>55</v>
+        <v>158</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L12" s="3"/>
+        <v>159</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="M12" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="J13" s="3" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S13" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="S13" s="3" t="s">
+      <c r="T13" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="U13" s="2" t="s">
-        <v>174</v>
+      <c r="U13" s="12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="L14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>187</v>
+      <c r="U14" s="12" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="M15" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="Q15" s="3" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="T15" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="T15" s="3" t="s">
         <v>194</v>
       </c>
+      <c r="U15" s="12" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>195</v>
       </c>
@@ -2373,791 +2302,556 @@
         <v>196</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>198</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J16" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="K16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="M16" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>207</v>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>268</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="O17" s="3" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="R17" s="3" t="s">
+      <c r="F18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>218</v>
       </c>
+      <c r="Q18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>269</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E18" s="3" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J18" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="L19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O19" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N18" s="3" t="s">
+      <c r="P19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="T19" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>238</v>
+      <c r="U19" s="12" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>239</v>
+      <c r="A20" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="J20" s="3" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>60</v>
+        <v>230</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>171</v>
+        <v>234</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>34</v>
+      <c r="A21" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>61</v>
+        <v>28</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>253</v>
+        <v>152</v>
+      </c>
+      <c r="S21" t="s">
+        <v>171</v>
+      </c>
+      <c r="T21" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="U21" s="13" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A22" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>72</v>
+      <c r="A22" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>245</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>256</v>
+        <v>44</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>167</v>
+        <v>28</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>261</v>
+        <v>116</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>262</v>
+        <v>152</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>266</v>
+        <v>152</v>
+      </c>
+      <c r="S22" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="T22" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="U22" s="13" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="L23" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M23" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="S23" t="s">
-        <v>192</v>
-      </c>
-      <c r="T23" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="U23" t="s">
-        <v>272</v>
-      </c>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="L24" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="M24" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O24" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="P24" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="S24" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="T24" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="U24" s="14" t="s">
-        <v>283</v>
-      </c>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
       <c r="R25" s="3"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-    </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="85" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="86" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="87" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="88" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="89" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="90" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="91" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="92" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="93" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="94" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="95" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="96" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="97" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="99" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="100" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="101" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="102" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="103" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="104" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="105" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="106" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="107" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="108" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="109" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="110" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="111" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="112" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="113" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="114" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="115" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="116" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="117" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="118" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="119" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="120" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="121" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="122" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="123" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="124" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="125" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="126" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="127" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="130" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="131" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="132" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="133" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="134" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="135" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="136" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="138" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="139" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="140" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="141" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="142" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="143" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="144" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="145" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="146" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="147" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="148" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="149" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="150" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="151" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="152" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="153" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <autoFilter ref="A3:U24" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:U22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="U13" r:id="rId1" display="www.cubedx.com" xr:uid="{2A9C5946-6E69-432F-8357-70AA0A37801A}"/>
-    <hyperlink ref="U6" r:id="rId2" display="www.accessobio.com" xr:uid="{A15200B4-E967-4198-85B6-1D1275645962}"/>
-    <hyperlink ref="U7" r:id="rId3" display="www.accuplexdiagnostics.com" xr:uid="{8521900D-B989-477F-8F57-FA88E32388D1}"/>
-    <hyperlink ref="U4" r:id="rId4" display="www.abgenics.in" xr:uid="{535F5903-F17A-45F4-B6B4-8C2848EE30C2}"/>
-    <hyperlink ref="T4" r:id="rId5" xr:uid="{91CED8EC-F5E0-4B71-8128-055B14502FED}"/>
-    <hyperlink ref="T6" r:id="rId6" xr:uid="{2093AF04-1585-456D-BD62-1EE7709B1E3F}"/>
-    <hyperlink ref="T10" r:id="rId7" xr:uid="{485C6F25-04BA-4BD1-BABA-EA753735D825}"/>
-    <hyperlink ref="T13" r:id="rId8" xr:uid="{632F7801-F95F-41AE-B5FB-FF384ED7CF79}"/>
-    <hyperlink ref="T14" r:id="rId9" xr:uid="{1F655BD4-981B-420F-BE55-7F3946DE3C3F}"/>
-    <hyperlink ref="T8" r:id="rId10" xr:uid="{6EA3D91F-FD43-4577-9BBB-7676D9F1B862}"/>
-    <hyperlink ref="T24" r:id="rId11" xr:uid="{134F1B3D-A2B9-4C6F-A23C-4ACF5D62DC2D}"/>
-    <hyperlink ref="T15" r:id="rId12" xr:uid="{5585F39E-6CE0-4F0B-BD22-53E3AEED1D18}"/>
-    <hyperlink ref="T23" r:id="rId13" xr:uid="{2BB483A1-316A-490F-A7CE-C5C10384AEC9}"/>
-    <hyperlink ref="T12" r:id="rId14" xr:uid="{D4FCE983-F1B5-4C46-8CE3-0AE5D920A97F}"/>
+    <hyperlink ref="U11" r:id="rId1" xr:uid="{2A9C5946-6E69-432F-8357-70AA0A37801A}"/>
+    <hyperlink ref="U4" r:id="rId2" xr:uid="{A15200B4-E967-4198-85B6-1D1275645962}"/>
+    <hyperlink ref="U5" r:id="rId3" xr:uid="{8521900D-B989-477F-8F57-FA88E32388D1}"/>
+    <hyperlink ref="U2" r:id="rId4" xr:uid="{535F5903-F17A-45F4-B6B4-8C2848EE30C2}"/>
+    <hyperlink ref="T2" r:id="rId5" xr:uid="{91CED8EC-F5E0-4B71-8128-055B14502FED}"/>
+    <hyperlink ref="T4" r:id="rId6" xr:uid="{2093AF04-1585-456D-BD62-1EE7709B1E3F}"/>
+    <hyperlink ref="T8" r:id="rId7" xr:uid="{485C6F25-04BA-4BD1-BABA-EA753735D825}"/>
+    <hyperlink ref="T11" r:id="rId8" xr:uid="{632F7801-F95F-41AE-B5FB-FF384ED7CF79}"/>
+    <hyperlink ref="T12" r:id="rId9" xr:uid="{1F655BD4-981B-420F-BE55-7F3946DE3C3F}"/>
+    <hyperlink ref="T6" r:id="rId10" xr:uid="{6EA3D91F-FD43-4577-9BBB-7676D9F1B862}"/>
+    <hyperlink ref="T22" r:id="rId11" xr:uid="{134F1B3D-A2B9-4C6F-A23C-4ACF5D62DC2D}"/>
+    <hyperlink ref="T13" r:id="rId12" xr:uid="{5585F39E-6CE0-4F0B-BD22-53E3AEED1D18}"/>
+    <hyperlink ref="T21" r:id="rId13" xr:uid="{2BB483A1-316A-490F-A7CE-C5C10384AEC9}"/>
+    <hyperlink ref="T10" r:id="rId14" xr:uid="{D4FCE983-F1B5-4C46-8CE3-0AE5D920A97F}"/>
+    <hyperlink ref="U3" r:id="rId15" xr:uid="{4C25CE0A-BDDD-46C7-9BA0-36501C2C7D8B}"/>
+    <hyperlink ref="U6" r:id="rId16" xr:uid="{755E078C-A80C-4F0F-95D2-078758A7F7EF}"/>
+    <hyperlink ref="U7" r:id="rId17" xr:uid="{A9929CB7-1FD0-4684-BD62-B4A5DA5E67D1}"/>
+    <hyperlink ref="U8" r:id="rId18" xr:uid="{D3584407-65EE-4D06-8A25-AEBE63EC6056}"/>
+    <hyperlink ref="U9" r:id="rId19" xr:uid="{977E6611-5E43-4675-BD80-4A03F1E1F738}"/>
+    <hyperlink ref="U10" r:id="rId20" xr:uid="{5F9875CB-3D46-4077-9998-A4A18BE087A5}"/>
+    <hyperlink ref="U12" r:id="rId21" xr:uid="{D6164043-9D56-4ED5-8B42-364C0BBEA587}"/>
+    <hyperlink ref="U13" r:id="rId22" xr:uid="{705785A7-3AB0-4570-89D3-AE28E53A09B2}"/>
+    <hyperlink ref="U14" r:id="rId23" xr:uid="{7A807E85-6FAA-4DF7-A11E-D8CB63E3CF27}"/>
+    <hyperlink ref="U15" r:id="rId24" xr:uid="{060D9FAA-D8B6-4289-98D7-2AA6E75EAFC4}"/>
+    <hyperlink ref="U16" r:id="rId25" xr:uid="{26A29051-7A46-4E1A-9C46-A87339DDC5FC}"/>
+    <hyperlink ref="U17" r:id="rId26" xr:uid="{27D10CDB-55E9-4FD8-B9BE-3FA726D47357}"/>
+    <hyperlink ref="U18" r:id="rId27" xr:uid="{480D51B0-8F73-4401-BDA7-87C751597653}"/>
+    <hyperlink ref="U19" r:id="rId28" xr:uid="{A954D9E5-33AB-4509-8BF1-3635FFD72F90}"/>
+    <hyperlink ref="U20" r:id="rId29" xr:uid="{EBF83CCE-658C-483F-AE30-A5F532ABBB56}"/>
+    <hyperlink ref="U21" r:id="rId30" xr:uid="{E463B3E1-8F90-48C3-9711-4144C817C999}"/>
+    <hyperlink ref="U22" r:id="rId31" xr:uid="{9CD7B6D5-8684-47F5-9FA8-D867ECF3EC0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
-  <legacyDrawing r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
 

--- a/data/testdir_explorer/xlsx_ns.xlsx
+++ b/data/testdir_explorer/xlsx_ns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myfinddx-my.sharepoint.com/personal/juan_vallarta_finddx_org/Documents/Documents/Repositories/FINDtestdirData/data/testdir_explorer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{65F09860-AF2B-4921-8639-CE0EB891F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{077204A1-D8E2-4E46-BEFF-FF00DC801C46}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{65F09860-AF2B-4921-8639-CE0EB891F365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A16D7704-C808-4346-80DD-FC2B9D9F2658}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$U$23</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="286">
   <si>
     <t>Organisation name</t>
   </si>
@@ -864,6 +864,42 @@
   </si>
   <si>
     <t>https://MeMed.com</t>
+  </si>
+  <si>
+    <t>eGlint</t>
+  </si>
+  <si>
+    <t>ProteoNex</t>
+  </si>
+  <si>
+    <t>Planned the market entry in 2028</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>&lt; 30cm</t>
+  </si>
+  <si>
+    <t>Mains (AC), 110 V (15 A circut or higher).  Can be battery powered if needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $5,000.00 </t>
+  </si>
+  <si>
+    <t>Denis Malyshev</t>
+  </si>
+  <si>
+    <t>denis.malyshev@eglintbio.com</t>
+  </si>
+  <si>
+    <t>eglint.com</t>
   </si>
 </sst>
 </file>
@@ -937,7 +973,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -960,6 +996,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1295,13 +1334,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F90FCE5-61FA-4F4D-9B1D-12578B947F39}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W3" sqref="W3"/>
       <selection pane="bottomLeft" activeCell="S5" sqref="S5"/>
-      <selection pane="bottomRight" activeCell="R29" sqref="R29"/>
+      <selection pane="bottomRight" activeCell="T41" sqref="T41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2100,103 +2139,103 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J13" s="3" t="s">
+      <c r="D13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="J13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>264</v>
+      <c r="K13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>47</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>49</v>
@@ -2205,39 +2244,39 @@
         <v>148</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>184</v>
+        <v>171</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>175</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>43</v>
@@ -2246,75 +2285,75 @@
         <v>44</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>198</v>
+        <v>43</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>89</v>
@@ -2323,63 +2362,63 @@
         <v>103</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="K16" s="3" t="s">
         <v>49</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>89</v>
@@ -2388,131 +2427,131 @@
         <v>103</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>146</v>
+        <v>199</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>49</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>148</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q17" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>87</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>89</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>152</v>
+        <v>210</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>152</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>157</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>197</v>
+        <v>46</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>28</v>
@@ -2521,193 +2560,193 @@
         <v>47</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>49</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>116</v>
+        <v>216</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>226</v>
+      <c r="A20" s="3" t="s">
+        <v>221</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="M20" s="3" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>234</v>
+        <v>138</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="A21" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="L21" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="10" t="s">
-        <v>50</v>
+      <c r="L21" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="S21" t="s">
-        <v>171</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>272</v>
+        <v>235</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="U21" s="12" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="H22" s="3" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>28</v>
@@ -2716,22 +2755,22 @@
         <v>47</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>49</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>249</v>
+        <v>50</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>107</v>
+        <v>152</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>152</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>152</v>
@@ -2739,37 +2778,80 @@
       <c r="R22" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="S22" s="10" t="s">
-        <v>251</v>
+      <c r="S22" t="s">
+        <v>171</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="U22" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
+      <c r="A23" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
@@ -2815,8 +2897,30 @@
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
     </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:U23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="U11" r:id="rId1" xr:uid="{2A9C5946-6E69-432F-8357-70AA0A37801A}"/>
     <hyperlink ref="U4" r:id="rId2" xr:uid="{A15200B4-E967-4198-85B6-1D1275645962}"/>
@@ -2828,9 +2932,9 @@
     <hyperlink ref="T11" r:id="rId8" xr:uid="{632F7801-F95F-41AE-B5FB-FF384ED7CF79}"/>
     <hyperlink ref="T12" r:id="rId9" xr:uid="{1F655BD4-981B-420F-BE55-7F3946DE3C3F}"/>
     <hyperlink ref="T6" r:id="rId10" xr:uid="{6EA3D91F-FD43-4577-9BBB-7676D9F1B862}"/>
-    <hyperlink ref="T22" r:id="rId11" xr:uid="{134F1B3D-A2B9-4C6F-A23C-4ACF5D62DC2D}"/>
-    <hyperlink ref="T13" r:id="rId12" xr:uid="{5585F39E-6CE0-4F0B-BD22-53E3AEED1D18}"/>
-    <hyperlink ref="T21" r:id="rId13" xr:uid="{2BB483A1-316A-490F-A7CE-C5C10384AEC9}"/>
+    <hyperlink ref="T23" r:id="rId11" xr:uid="{134F1B3D-A2B9-4C6F-A23C-4ACF5D62DC2D}"/>
+    <hyperlink ref="T14" r:id="rId12" xr:uid="{5585F39E-6CE0-4F0B-BD22-53E3AEED1D18}"/>
+    <hyperlink ref="T22" r:id="rId13" xr:uid="{2BB483A1-316A-490F-A7CE-C5C10384AEC9}"/>
     <hyperlink ref="T10" r:id="rId14" xr:uid="{D4FCE983-F1B5-4C46-8CE3-0AE5D920A97F}"/>
     <hyperlink ref="U3" r:id="rId15" xr:uid="{4C25CE0A-BDDD-46C7-9BA0-36501C2C7D8B}"/>
     <hyperlink ref="U6" r:id="rId16" xr:uid="{755E078C-A80C-4F0F-95D2-078758A7F7EF}"/>
@@ -2839,19 +2943,20 @@
     <hyperlink ref="U9" r:id="rId19" xr:uid="{977E6611-5E43-4675-BD80-4A03F1E1F738}"/>
     <hyperlink ref="U10" r:id="rId20" xr:uid="{5F9875CB-3D46-4077-9998-A4A18BE087A5}"/>
     <hyperlink ref="U12" r:id="rId21" xr:uid="{D6164043-9D56-4ED5-8B42-364C0BBEA587}"/>
-    <hyperlink ref="U13" r:id="rId22" xr:uid="{705785A7-3AB0-4570-89D3-AE28E53A09B2}"/>
-    <hyperlink ref="U14" r:id="rId23" xr:uid="{7A807E85-6FAA-4DF7-A11E-D8CB63E3CF27}"/>
-    <hyperlink ref="U15" r:id="rId24" xr:uid="{060D9FAA-D8B6-4289-98D7-2AA6E75EAFC4}"/>
-    <hyperlink ref="U16" r:id="rId25" xr:uid="{26A29051-7A46-4E1A-9C46-A87339DDC5FC}"/>
-    <hyperlink ref="U17" r:id="rId26" xr:uid="{27D10CDB-55E9-4FD8-B9BE-3FA726D47357}"/>
-    <hyperlink ref="U18" r:id="rId27" xr:uid="{480D51B0-8F73-4401-BDA7-87C751597653}"/>
-    <hyperlink ref="U19" r:id="rId28" xr:uid="{A954D9E5-33AB-4509-8BF1-3635FFD72F90}"/>
-    <hyperlink ref="U20" r:id="rId29" xr:uid="{EBF83CCE-658C-483F-AE30-A5F532ABBB56}"/>
-    <hyperlink ref="U21" r:id="rId30" xr:uid="{E463B3E1-8F90-48C3-9711-4144C817C999}"/>
-    <hyperlink ref="U22" r:id="rId31" xr:uid="{9CD7B6D5-8684-47F5-9FA8-D867ECF3EC0C}"/>
+    <hyperlink ref="U14" r:id="rId22" xr:uid="{705785A7-3AB0-4570-89D3-AE28E53A09B2}"/>
+    <hyperlink ref="U15" r:id="rId23" xr:uid="{7A807E85-6FAA-4DF7-A11E-D8CB63E3CF27}"/>
+    <hyperlink ref="U16" r:id="rId24" xr:uid="{060D9FAA-D8B6-4289-98D7-2AA6E75EAFC4}"/>
+    <hyperlink ref="U17" r:id="rId25" xr:uid="{26A29051-7A46-4E1A-9C46-A87339DDC5FC}"/>
+    <hyperlink ref="U18" r:id="rId26" xr:uid="{27D10CDB-55E9-4FD8-B9BE-3FA726D47357}"/>
+    <hyperlink ref="U19" r:id="rId27" xr:uid="{480D51B0-8F73-4401-BDA7-87C751597653}"/>
+    <hyperlink ref="U20" r:id="rId28" xr:uid="{A954D9E5-33AB-4509-8BF1-3635FFD72F90}"/>
+    <hyperlink ref="U21" r:id="rId29" xr:uid="{EBF83CCE-658C-483F-AE30-A5F532ABBB56}"/>
+    <hyperlink ref="U22" r:id="rId30" xr:uid="{E463B3E1-8F90-48C3-9711-4144C817C999}"/>
+    <hyperlink ref="U23" r:id="rId31" xr:uid="{9CD7B6D5-8684-47F5-9FA8-D867ECF3EC0C}"/>
+    <hyperlink ref="T13" r:id="rId32" display="mailto:denis.malyshev@eglintbio.com" xr:uid="{22F87AB0-EAA5-42B9-8AAD-84FFE3785ABD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 
